--- a/data/trans_dic/P24_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>16,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>24,64%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>17,39%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>12,73%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>13,56%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>19,09%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 16,24</t>
+          <t>6,69; 15,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,74</t>
+          <t>5,11; 15,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,08</t>
+          <t>7,26; 18,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 17,03</t>
+          <t>6,19; 18,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 25,33</t>
+          <t>7,84; 22,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 32,61</t>
+          <t>9,68; 24,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 22,6</t>
+          <t>16,12; 33,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 21,79</t>
+          <t>18,73; 31,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 19,9</t>
+          <t>9,96; 21,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 29,85</t>
+          <t>8,61; 19,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,55</t>
+          <t>9,25; 19,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,9</t>
+          <t>10,47; 23,79</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,22</t>
+          <t>15,4; 31,5</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,75</t>
+          <t>16,06; 30,65</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 24,45</t>
+          <t>13,69; 21,64</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 16,18</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 17,05</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 17,27</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 20,15</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 24,04</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 30,01</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>29,83%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>16,42%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>18,64%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>22,37%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>24,84%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 16,06</t>
+          <t>6,41; 15,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 24,52</t>
+          <t>7,6; 23,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 21,74</t>
+          <t>10,71; 21,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 27,96</t>
+          <t>14,02; 29,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 27,75</t>
+          <t>18,62; 40,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 28,47</t>
+          <t>13,55; 27,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 33,52</t>
+          <t>10,83; 24,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 27,44</t>
+          <t>17,38; 28,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,6</t>
+          <t>19,2; 32,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,33; 37,7</t>
+          <t>16,47; 27,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 20,27</t>
+          <t>21,14; 32,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 25,86</t>
+          <t>21,2; 35,05</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 22,73</t>
+          <t>23,28; 36,96</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 27,44</t>
+          <t>28,25; 42,47</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,67; 30,76</t>
+          <t>12,64; 19,98</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,53; 24,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 22,86</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 28,77</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>22,13; 35,25</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 30,24</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 31,4</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>29,43%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>27,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>28,25%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>28,48%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>36,86%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>23,39%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>23,21%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>30,03%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>34,97%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 22,12</t>
+          <t>12,6; 23,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 22,23</t>
+          <t>11,92; 24,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,1</t>
+          <t>13,34; 23,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 30,58</t>
+          <t>16,71; 28,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 30,49</t>
+          <t>14,72; 26,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,85; 34,77</t>
+          <t>18,2; 30,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 32,74</t>
+          <t>22,52; 36,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,85</t>
+          <t>24,35; 34,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,01; 41,3</t>
+          <t>22,53; 33,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 43,75</t>
+          <t>24,18; 33,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 27,18</t>
+          <t>32,32; 41,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 25,6</t>
+          <t>31,31; 42,95</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,9</t>
+          <t>31,41; 43,34</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 33,88</t>
+          <t>35,33; 49,25</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 34,93</t>
+          <t>20,19; 26,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 26,65</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 27,5</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 34,3</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 33,3</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 34,53</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>30,5; 39,9</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>38,61%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>34,5%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,84%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>42,59%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>46,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>52,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>26,99%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>27,93%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>32,03%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>37,63%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>32,46%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>39,96%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>45,64%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,57</t>
+          <t>14,3; 23,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 27,08</t>
+          <t>16,87; 27,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 25,91</t>
+          <t>16,29; 25,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,98</t>
+          <t>23,74; 36,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,64; 46,65</t>
+          <t>22,61; 34,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,47; 39,33</t>
+          <t>31,56; 46,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,46; 39,87</t>
+          <t>32,42; 46,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,69; 47,78</t>
+          <t>29,94; 39,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,89; 51,76</t>
+          <t>29,21; 39,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,72; 59,61</t>
+          <t>37,59; 48,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 30,78</t>
+          <t>42,22; 52,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 31,83</t>
+          <t>46,19; 57,84</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 35,93</t>
+          <t>46,42; 60,28</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,89; 41,86</t>
+          <t>45,77; 58,65</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,27; 50,54</t>
+          <t>23,69; 30,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 32,77</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>28,87; 36,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>34,11; 41,72</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>35,64; 43,98</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>40,91; 51,13</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>40,37; 49,99</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>33,1%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>41,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>50,88%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>50,92%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50,22%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>68,18%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>27,9%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>30,9%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>39,09%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>40,56%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>31,79%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>56,67%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>54,69%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 28,48</t>
+          <t>17,37; 28,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 26,64</t>
+          <t>15,48; 26,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,19; 32,83</t>
+          <t>22,75; 33,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,96; 40,28</t>
+          <t>28,09; 39,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,22; 52,39</t>
+          <t>29,39; 44,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 39,48</t>
+          <t>37,09; 51,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,48; 47,69</t>
+          <t>39,24; 54,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,92; 56,58</t>
+          <t>26,81; 38,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,64; 53,71</t>
+          <t>35,94; 49,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,92; 73,72</t>
+          <t>45,05; 57,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,86; 32,37</t>
+          <t>40,94; 53,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,26; 35,18</t>
+          <t>42,61; 57,68</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>35,04; 43,63</t>
+          <t>61,88; 74,39</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,29; 45,12</t>
+          <t>55,18; 69,25</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>51,43; 61,2</t>
+          <t>23,81; 32,09</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 36,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 43,75</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>36,43; 45,13</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>38,62; 48,88</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>51,59; 61,95</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>49,69; 59,82</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>37,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>46,33%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>50,53%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>53,86%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>55,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>61,04%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>36,96%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>44,18%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>51,26%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>54,73%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,71; 31,53</t>
+          <t>18,71; 31,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 32,26</t>
+          <t>16,66; 30,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 40,89</t>
+          <t>22,83; 39,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,45; 43,31</t>
+          <t>28,32; 42,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,46; 46,64</t>
+          <t>27,99; 45,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,57; 52,63</t>
+          <t>30,5; 47,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,64; 57,29</t>
+          <t>31,43; 47,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,52; 60,14</t>
+          <t>40,45; 53,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,96; 58,64</t>
+          <t>44,37; 58,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,25; 70,04</t>
+          <t>47,93; 61,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 41,72</t>
+          <t>45,89; 60,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,18; 44,59</t>
+          <t>46,37; 63,33</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>38,79; 48,96</t>
+          <t>51,54; 70,98</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>38,13; 50,3</t>
+          <t>57,87; 73,72</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>44,64; 57,81</t>
+          <t>32,4; 41,93</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>34,01; 44,21</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 48,8</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>40,55; 50,73</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>41,09; 53,57</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>45,17; 57,44</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>49,04; 60,57</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>30,25%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>32,8%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>33,42%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>35,95%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>46,88%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>48,56%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>25,28%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>25,58%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>31,6%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>38,59%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>40,45%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 19,53</t>
+          <t>15,42; 19,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,0; 19,92</t>
+          <t>15,34; 20,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 23,49</t>
+          <t>18,36; 23,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,42; 27,93</t>
+          <t>22,75; 28,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,44; 33,68</t>
+          <t>24,13; 30,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,8; 35,56</t>
+          <t>27,09; 33,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,68; 36,07</t>
+          <t>29,37; 35,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,37; 38,49</t>
+          <t>30,47; 35,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,6; 40,58</t>
+          <t>31,24; 36,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>43,77; 50,24</t>
+          <t>33,96; 38,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,52; 26,95</t>
+          <t>36,18; 40,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,78; 27,44</t>
+          <t>38,11; 44,12</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>26,84; 30,25</t>
+          <t>43,97; 50,56</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>29,73; 33,49</t>
+          <t>45,37; 51,61</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>36,54; 41,0</t>
+          <t>23,52; 26,81</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 27,64</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>27,01; 30,38</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 34,06</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>32,16; 36,37</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>36,16; 40,78</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>38,18; 42,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47773</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59295</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63486</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7054</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10657</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>114064</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70971</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68897</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72299</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77221</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8122</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8963</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>169719</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>118745</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>132830</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>131594</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>140708</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>15176</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>19620</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34331; 81943</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25656; 76917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38059; 96654</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31569; 95884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36570; 103769</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4074; 10359</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7104; 14541</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86682; 147412</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46677; 100915</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44309; 102904</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47555; 101850</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49967; 113550</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5758; 11780</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6192; 11817</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>133554; 211158</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>85333; 157125</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>95567; 177167</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>93863; 176888</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>102523; 190108</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10918; 19103</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>15040; 24794</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58734</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74132</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>90503</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>116190</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>163576</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>118989</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>131661</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>110008</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137443</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>138225</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14083</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>177722</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>205793</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>200512</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>253632</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>301801</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>24110</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>24199</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36109; 86266</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43585; 136827</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>60546; 122497</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83342; 173346</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107973; 234705</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6761; 13723</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5135; 11615</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>90176; 148872</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99126; 165712</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83689; 138159</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>109384; 169595</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>107104; 177032</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10988; 17445</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12997; 19538</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>136802; 216185</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>158321; 269564</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>158921; 245386</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>207657; 319878</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>240117; 382479</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>19339; 29360</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>19598; 29340</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116064</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>115501</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>121695</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>150725</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>137921</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14416</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17276</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>204301</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>199104</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>204634</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>261418</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>264800</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19795</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>23034</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>320365</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>314605</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>326329</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>412143</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>402721</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>34211</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>40310</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85144; 156208</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81791; 168941</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>90121; 159501</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>112856; 193121</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99930; 182854</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10956; 18285</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13610; 22003</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>169051; 242934</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160528; 240440</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>173717; 239664</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>230653; 297964</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>224608; 308127</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16871; 23276</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19380; 27016</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>276595; 367525</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>261199; 372849</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>281272; 383412</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>365360; 476550</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>344098; 465030</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>29335; 39336</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>35162; 46001</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>119439</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>141247</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136993</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>183252</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>183226</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22496</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21990</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>242623</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>236007</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>290240</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>308197</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>343007</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>28024</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>362062</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>377254</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>427233</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>491449</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>526233</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>50520</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>49860</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>91329; 151769</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>108728; 178237</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>105254; 164957</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>151166; 229853</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>148204; 223958</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18387; 27045</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>18468; 26206</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>210584; 277420</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>200286; 273630</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>251884; 325564</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>278627; 345639</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>305524; 382588</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24336; 31602</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24382; 31246</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>317856; 410038</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>332742; 435843</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>379929; 475815</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>442232; 540941</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>469318; 579113</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>45287; 56594</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>44500; 55099</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>116683</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>102059</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>140598</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165916</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>180446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19598</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>166308</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>217180</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>256206</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>242230</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>259597</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>33250</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>29127</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>282992</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>319239</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>396804</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>408146</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>440043</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>52848</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>49897</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>88905; 143335</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76698; 133368</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114658; 170952</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>137876; 195549</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>143771; 215364</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16499; 23082</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17496; 24395</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>134678; 195368</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>182952; 249582</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>226655; 288945</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>210909; 273075</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>220270; 298143</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>30178; 36281</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25739; 32306</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>241470; 325507</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>274867; 365377</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>355318; 440542</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>366472; 454009</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>388498; 491802</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>48109; 57775</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>45330; 54570</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>133688</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>122012</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>155699</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>188192</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>205318</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17580</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17876</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>338701</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>367062</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>375282</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>369691</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>400373</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>38895</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>41362</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>472389</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>489074</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>530981</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>557884</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>605691</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>56475</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>59238</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>102295; 174970</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>90852; 165375</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>118898; 203963</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>150768; 228265</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>158552; 258128</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14166; 21856</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14409; 21891</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>295728; 387759</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>318472; 416570</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>326461; 418725</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>316594; 417430</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>338178; 461872</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>32841; 45230</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>36105; 45998</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>414116; 535808</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>429539; 558288</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>471343; 586471</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>495617; 620142</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>532339; 694136</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>49766; 63277</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>53081; 65561</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>604.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>770.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1008.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>816.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>856.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>600263</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>602724</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>709421</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>863571</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>933974</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>91171</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>96613</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1184987</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1221985</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1305267</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1391276</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1483222</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>142170</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>146511</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1785250</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1824709</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2014688</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2254847</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>2417196</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>233340</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>243124</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>532079; 687191</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>528611; 697425</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>630731; 795039</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>782751; 964039</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>829181; 1054138</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>81654; 99988</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>87899; 106225</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1100797; 1273886</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1127797; 1315794</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1221105; 1392581</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1306024; 1478213</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1374646; 1591438</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>133336; 153325</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>136899; 155728</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1660754; 1893631</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1683988; 1950418</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1898990; 2136466</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2131054; 2400985</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>2265220; 2561503</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>218636; 246543</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>229480; 257369</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>